--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_AnhThaiQuyNhon.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_AnhThaiQuyNhon.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="76">
   <si>
     <t>STT</t>
   </si>
@@ -241,6 +241,24 @@
   </si>
   <si>
     <t>00320011AA</t>
+  </si>
+  <si>
+    <t>Đổi mới</t>
+  </si>
+  <si>
+    <t>ĐM</t>
+  </si>
+  <si>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>ID mới : WP21120135S00536</t>
+  </si>
+  <si>
+    <t>ID mới : WP21120135S00534</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
   </si>
 </sst>
 </file>
@@ -613,6 +631,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -656,9 +677,6 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -967,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1000,43 +1018,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1081,58 +1099,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="66" t="s">
+      <c r="S4" s="67" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1157,23 +1175,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="67"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1183,7 +1201,9 @@
       <c r="B6" s="54">
         <v>44753</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44756</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>64</v>
       </c>
@@ -1194,22 +1214,36 @@
       <c r="G6" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="74" t="s">
+      <c r="H6" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="51" t="s">
+        <v>75</v>
+      </c>
       <c r="K6" s="55"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>70</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="60" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1224,7 +1258,9 @@
       <c r="B7" s="54">
         <v>44753</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44756</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>64</v>
       </c>
@@ -1238,19 +1274,33 @@
       <c r="H7" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
+      <c r="I7" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="51" t="s">
+        <v>75</v>
+      </c>
       <c r="K7" s="55"/>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>70</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="61"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1279,7 +1329,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="61"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1308,7 +1358,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="61"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1337,7 +1387,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="61"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1366,7 +1416,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="61"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1395,7 +1445,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="60" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1426,7 +1476,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="61"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1455,7 +1505,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="61"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1484,7 +1534,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="61"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1513,7 +1563,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="62"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1663,7 +1713,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -1908,7 +1958,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -2164,7 +2214,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3290,43 +3340,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -3371,58 +3421,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="66" t="s">
+      <c r="S4" s="67" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -3447,23 +3497,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="67"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3489,7 +3539,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="60" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3520,7 +3570,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="61"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3549,7 +3599,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="61"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3578,7 +3628,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="61"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3607,7 +3657,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="61"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3636,7 +3686,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="61"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3665,7 +3715,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="60" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3696,7 +3746,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="61"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3725,7 +3775,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="61"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3754,7 +3804,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="61"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3783,7 +3833,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="62"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
